--- a/poi-examples-teiid/file/3219.xlsx
+++ b/poi-examples-teiid/file/3219.xlsx
@@ -145,7 +145,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
+      <selection activeCell="C8" activeCellId="0" pane="topLeft" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
